--- a/data/Игры.xlsx
+++ b/data/Игры.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>возможна переиговка (0-нет, 1-да)</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -358,23 +355,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>